--- a/outputs/HRT/gridsearch_results/gridsearch_AdaBoost_results.xlsx
+++ b/outputs/HRT/gridsearch_results/gridsearch_AdaBoost_results.xlsx
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.7239955420723649</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.377487909377253</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
